--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_21_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_21_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>488773.2960978431</v>
+        <v>355723.9044761727</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8732945.182477079</v>
+        <v>7830635.510353971</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23507905.66364771</v>
+        <v>22605595.99152464</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3676894.472932718</v>
+        <v>4203418.071329094</v>
       </c>
     </row>
     <row r="11">
@@ -1381,64 +1381,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="G11" t="n">
+        <v>24.83744407087698</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>23.35464865984562</v>
-      </c>
-      <c r="H11" t="n">
-        <v>24.83744407087698</v>
-      </c>
-      <c r="I11" t="n">
-        <v>24.83744407087698</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>21.87682073762843</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>11.48159118566198</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>24.83744407087698</v>
       </c>
       <c r="S12" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.39522955196645</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1606,23 +1606,23 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="C14" t="n">
+        <v>23.35464865984562</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>24.83744407087698</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.35464865984562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,58 +1691,58 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>21.87682073762844</v>
+        <v>21.87682073762843</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>24.83744407087698</v>
       </c>
-      <c r="F15" t="n">
+      <c r="T15" t="n">
         <v>24.83744407087698</v>
       </c>
-      <c r="G15" t="n">
+      <c r="U15" t="n">
         <v>24.83744407087698</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>23.35464865984562</v>
       </c>
       <c r="H17" t="n">
-        <v>24.83744407087736</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1885,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>21.31820101697809</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>24.83744407087736</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.036447642867521</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1967,31 +1967,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.87682073762877</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="R18" t="n">
-        <v>24.83744407087736</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>24.83744407087736</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>24.83744407087736</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>21.87682073762843</v>
       </c>
     </row>
     <row r="19">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.83744407087736</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>24.83744407087702</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>24.83744407087736</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>24.83744407087702</v>
       </c>
       <c r="V20" t="n">
-        <v>23.35464865984561</v>
+        <v>23.35464865984562</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.87682073762877</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>24.83744407087702</v>
       </c>
       <c r="E21" t="n">
-        <v>24.83744407087736</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>24.83744407087736</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>21.87682073762848</v>
       </c>
       <c r="H21" t="n">
-        <v>24.83744407087736</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>24.83744407087702</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>24.83744407087702</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.535846427690066</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2359,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>21.31820101697809</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>37.41536405021009</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>22.85404744466816</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>37.41536405021009</v>
       </c>
       <c r="W23" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>32.95545265542504</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>37.41536405021009</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>37.41536405021009</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>37.41536405021009</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>22.85404744466816</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>37.41536405021009</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>37.41536405021009</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>22.85404744466816</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2651,55 +2651,55 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>37.41536405021009</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>37.41536405021009</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>37.41536405021009</v>
+      </c>
+      <c r="V27" t="n">
         <v>32.95545265542504</v>
       </c>
-      <c r="I27" t="n">
-        <v>37.41536405021009</v>
-      </c>
-      <c r="J27" t="n">
-        <v>37.41536405021009</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2794,59 +2794,59 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>22.85404744466816</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
         <v>37.41536405021009</v>
       </c>
-      <c r="D29" t="n">
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>37.41536405021009</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>22.85404744466816</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2915,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>32.95545265542504</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>37.41536405021009</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>37.41536405021009</v>
       </c>
-      <c r="W30" t="n">
-        <v>32.95545265542504</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>37.41536405021009</v>
       </c>
     </row>
     <row r="31">
@@ -3031,59 +3031,59 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>37.41536405021009</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>37.41536405021009</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>22.85404744466816</v>
       </c>
-      <c r="D32" t="n">
-        <v>37.41536405021009</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>37.41536405021009</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>32.95545265542504</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,58 +3122,58 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
         <v>37.41536405021009</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>37.41536405021009</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>37.41536405021009</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>32.95545265542504</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3268,73 +3268,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>24.83744407087698</v>
       </c>
-      <c r="D35" t="n">
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>24.83744407087698</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>23.35464865984562</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>21.87682073762843</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>21.87682073762844</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>24.83744407087698</v>
       </c>
       <c r="Y36" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3547,28 +3547,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>24.83744407087698</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>24.83744407087698</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>23.35464865984562</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>24.83744407087698</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>24.83744407087698</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,17 +3584,17 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>24.83744407087698</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>24.83744407087698</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>21.87682073762844</v>
       </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
         <v>24.83744407087698</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3745,61 +3745,61 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>23.35464865984562</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>24.83744407087698</v>
       </c>
       <c r="W41" t="n">
         <v>24.83744407087698</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>24.83744407087698</v>
       </c>
     </row>
     <row r="42">
@@ -3821,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>21.87682073762843</v>
       </c>
       <c r="G42" t="n">
-        <v>21.87682073762843</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3863,19 +3863,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>24.83744407087698</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3991,52 +3991,52 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>21.31820101697809</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>24.83744407087698</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>24.83744407087698</v>
+        <v>2.036447642867529</v>
       </c>
       <c r="V44" t="n">
-        <v>23.35464865984562</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4058,55 +4058,55 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
+        <v>21.87682073762843</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>24.83744407087698</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>24.83744407087698</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>24.83744407087698</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>21.87682073762844</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431054</v>
       </c>
       <c r="C11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431054</v>
       </c>
       <c r="D11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431054</v>
       </c>
       <c r="E11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431054</v>
       </c>
       <c r="F11" t="n">
-        <v>75.7542044161748</v>
+        <v>27.07532286999035</v>
       </c>
       <c r="G11" t="n">
-        <v>52.16365021431054</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="H11" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="I11" t="n">
         <v>1.986995525670159</v>
@@ -5086,7 +5086,7 @@
         <v>75.7542044161748</v>
       </c>
       <c r="Y11" t="n">
-        <v>75.7542044161748</v>
+        <v>52.16365021431054</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.58456237987418</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="C12" t="n">
-        <v>13.58456237987418</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="D12" t="n">
-        <v>13.58456237987418</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="E12" t="n">
-        <v>13.58456237987418</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="F12" t="n">
-        <v>13.58456237987418</v>
+        <v>24.08479425054736</v>
       </c>
       <c r="G12" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="H12" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="I12" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="J12" t="n">
-        <v>13.58456237987418</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="K12" t="n">
         <v>1.986995525670159</v>
       </c>
       <c r="L12" t="n">
-        <v>26.57606515583837</v>
+        <v>25.5825673930033</v>
       </c>
       <c r="M12" t="n">
-        <v>28.55076105783931</v>
+        <v>50.17163702317151</v>
       </c>
       <c r="N12" t="n">
-        <v>53.13983068800752</v>
+        <v>74.76070665333972</v>
       </c>
       <c r="O12" t="n">
-        <v>77.72890031817573</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="P12" t="n">
         <v>99.34977628350794</v>
@@ -5147,25 +5147,25 @@
         <v>49.17312159486755</v>
       </c>
       <c r="S12" t="n">
-        <v>24.08479425054736</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="T12" t="n">
-        <v>13.58456237987418</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="U12" t="n">
-        <v>13.58456237987418</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="V12" t="n">
-        <v>13.58456237987418</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="W12" t="n">
-        <v>13.58456237987418</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="X12" t="n">
-        <v>13.58456237987418</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.58456237987418</v>
+        <v>49.17312159486755</v>
       </c>
     </row>
     <row r="13">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>50.66587707185461</v>
+      </c>
+      <c r="C14" t="n">
         <v>27.07532286999035</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.986995525670159</v>
-      </c>
       <c r="D14" t="n">
-        <v>1.986995525670159</v>
+        <v>27.07532286999035</v>
       </c>
       <c r="E14" t="n">
-        <v>1.986995525670159</v>
+        <v>27.07532286999035</v>
       </c>
       <c r="F14" t="n">
-        <v>1.986995525670159</v>
+        <v>27.07532286999035</v>
       </c>
       <c r="G14" t="n">
         <v>1.986995525670159</v>
@@ -5302,28 +5302,28 @@
         <v>75.7542044161748</v>
       </c>
       <c r="R14" t="n">
-        <v>50.66587707185461</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="S14" t="n">
-        <v>50.66587707185461</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="T14" t="n">
-        <v>50.66587707185461</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="U14" t="n">
-        <v>50.66587707185461</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="V14" t="n">
-        <v>50.66587707185461</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="W14" t="n">
-        <v>50.66587707185461</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="X14" t="n">
-        <v>50.66587707185461</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.07532286999035</v>
+        <v>75.7542044161748</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.34977628350794</v>
+        <v>24.08479425054736</v>
       </c>
       <c r="C15" t="n">
-        <v>99.34977628350794</v>
+        <v>24.08479425054736</v>
       </c>
       <c r="D15" t="n">
-        <v>77.25197755863073</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="E15" t="n">
-        <v>52.16365021431054</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="F15" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="G15" t="n">
         <v>1.986995525670159</v>
@@ -5366,13 +5366,13 @@
         <v>26.57606515583837</v>
       </c>
       <c r="M15" t="n">
-        <v>28.55076105783931</v>
+        <v>51.16513478600659</v>
       </c>
       <c r="N15" t="n">
-        <v>53.13983068800752</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="O15" t="n">
-        <v>77.72890031817573</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="P15" t="n">
         <v>99.34977628350794</v>
@@ -5384,25 +5384,25 @@
         <v>99.34977628350794</v>
       </c>
       <c r="S15" t="n">
-        <v>99.34977628350794</v>
+        <v>74.26144893918774</v>
       </c>
       <c r="T15" t="n">
-        <v>99.34977628350794</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="U15" t="n">
-        <v>99.34977628350794</v>
+        <v>24.08479425054736</v>
       </c>
       <c r="V15" t="n">
-        <v>99.34977628350794</v>
+        <v>24.08479425054736</v>
       </c>
       <c r="W15" t="n">
-        <v>99.34977628350794</v>
+        <v>24.08479425054736</v>
       </c>
       <c r="X15" t="n">
-        <v>99.34977628350794</v>
+        <v>24.08479425054736</v>
       </c>
       <c r="Y15" t="n">
-        <v>99.34977628350794</v>
+        <v>24.08479425054736</v>
       </c>
     </row>
     <row r="16">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="C17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="D17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="E17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="F17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="G17" t="n">
-        <v>27.07532286999076</v>
+        <v>52.16365021431054</v>
       </c>
       <c r="H17" t="n">
-        <v>1.986995525670189</v>
+        <v>27.07532286999035</v>
       </c>
       <c r="I17" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="J17" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="K17" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="L17" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="M17" t="n">
-        <v>26.57606515583878</v>
+        <v>26.57606515583837</v>
       </c>
       <c r="N17" t="n">
-        <v>51.16513478600736</v>
+        <v>51.16513478600659</v>
       </c>
       <c r="O17" t="n">
-        <v>75.75420441617558</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="P17" t="n">
-        <v>54.22066803538963</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="Q17" t="n">
-        <v>29.13234069106906</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="R17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="S17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="T17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="U17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="V17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="W17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="X17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="Y17" t="n">
-        <v>27.07532286999076</v>
+        <v>75.7542044161748</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="C18" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="D18" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="E18" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="F18" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="G18" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="H18" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="I18" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="J18" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="K18" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="L18" t="n">
-        <v>26.57606515583878</v>
+        <v>25.5825673930033</v>
       </c>
       <c r="M18" t="n">
-        <v>28.55076105784006</v>
+        <v>50.17163702317151</v>
       </c>
       <c r="N18" t="n">
-        <v>53.13983068800865</v>
+        <v>74.76070665333972</v>
       </c>
       <c r="O18" t="n">
-        <v>77.72890031817724</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="P18" t="n">
-        <v>99.34977628350944</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.25197755863189</v>
+        <v>74.26144893918774</v>
       </c>
       <c r="R18" t="n">
-        <v>52.16365021431132</v>
+        <v>74.26144893918774</v>
       </c>
       <c r="S18" t="n">
-        <v>52.16365021431132</v>
+        <v>74.26144893918774</v>
       </c>
       <c r="T18" t="n">
-        <v>52.16365021431132</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="U18" t="n">
-        <v>52.16365021431132</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="V18" t="n">
-        <v>27.07532286999076</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="W18" t="n">
-        <v>1.986995525670189</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="X18" t="n">
-        <v>1.986995525670189</v>
+        <v>24.08479425054736</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="C19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="D19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="E19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="F19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="G19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="H19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="I19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="J19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="K19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="L19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="M19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="N19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="O19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="P19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="R19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="S19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="T19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="U19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="V19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="W19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="X19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670159</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.986995525670189</v>
+        <v>27.07532286999038</v>
       </c>
       <c r="C20" t="n">
-        <v>1.986995525670189</v>
+        <v>27.07532286999038</v>
       </c>
       <c r="D20" t="n">
-        <v>1.986995525670189</v>
+        <v>27.07532286999038</v>
       </c>
       <c r="E20" t="n">
-        <v>1.986995525670189</v>
+        <v>27.07532286999038</v>
       </c>
       <c r="F20" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="G20" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="H20" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="I20" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="J20" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="K20" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="L20" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="M20" t="n">
-        <v>26.57606515583878</v>
+        <v>26.57606515583841</v>
       </c>
       <c r="N20" t="n">
-        <v>51.16513478600736</v>
+        <v>51.16513478600666</v>
       </c>
       <c r="O20" t="n">
-        <v>75.75420441617558</v>
+        <v>75.75420441617487</v>
       </c>
       <c r="P20" t="n">
-        <v>75.75420441617558</v>
+        <v>75.75420441617487</v>
       </c>
       <c r="Q20" t="n">
-        <v>75.75420441617558</v>
+        <v>75.75420441617487</v>
       </c>
       <c r="R20" t="n">
-        <v>75.75420441617558</v>
+        <v>75.75420441617487</v>
       </c>
       <c r="S20" t="n">
-        <v>75.75420441617558</v>
+        <v>75.75420441617487</v>
       </c>
       <c r="T20" t="n">
-        <v>50.66587707185501</v>
+        <v>75.75420441617487</v>
       </c>
       <c r="U20" t="n">
-        <v>50.66587707185501</v>
+        <v>50.66587707185465</v>
       </c>
       <c r="V20" t="n">
-        <v>27.07532286999076</v>
+        <v>27.07532286999038</v>
       </c>
       <c r="W20" t="n">
-        <v>27.07532286999076</v>
+        <v>27.07532286999038</v>
       </c>
       <c r="X20" t="n">
-        <v>27.07532286999076</v>
+        <v>27.07532286999038</v>
       </c>
       <c r="Y20" t="n">
-        <v>27.07532286999076</v>
+        <v>27.07532286999038</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.25197755863189</v>
+        <v>49.17312159486764</v>
       </c>
       <c r="C21" t="n">
-        <v>77.25197755863189</v>
+        <v>49.17312159486764</v>
       </c>
       <c r="D21" t="n">
-        <v>77.25197755863189</v>
+        <v>24.08479425054741</v>
       </c>
       <c r="E21" t="n">
-        <v>52.16365021431132</v>
+        <v>24.08479425054741</v>
       </c>
       <c r="F21" t="n">
-        <v>27.07532286999076</v>
+        <v>24.08479425054741</v>
       </c>
       <c r="G21" t="n">
-        <v>27.07532286999076</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="H21" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="I21" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="J21" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="K21" t="n">
-        <v>1.986995525670189</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="L21" t="n">
-        <v>26.57606515583878</v>
+        <v>26.57606515583841</v>
       </c>
       <c r="M21" t="n">
-        <v>28.55076105784006</v>
+        <v>51.16513478600666</v>
       </c>
       <c r="N21" t="n">
-        <v>53.13983068800865</v>
+        <v>75.75420441617491</v>
       </c>
       <c r="O21" t="n">
-        <v>77.72890031817724</v>
+        <v>99.34977628350808</v>
       </c>
       <c r="P21" t="n">
-        <v>99.34977628350944</v>
+        <v>99.34977628350808</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.34977628350944</v>
+        <v>99.34977628350808</v>
       </c>
       <c r="R21" t="n">
-        <v>99.34977628350944</v>
+        <v>99.34977628350808</v>
       </c>
       <c r="S21" t="n">
-        <v>99.34977628350944</v>
+        <v>74.26144893918786</v>
       </c>
       <c r="T21" t="n">
-        <v>99.34977628350944</v>
+        <v>74.26144893918786</v>
       </c>
       <c r="U21" t="n">
-        <v>99.34977628350944</v>
+        <v>74.26144893918786</v>
       </c>
       <c r="V21" t="n">
-        <v>99.34977628350944</v>
+        <v>74.26144893918786</v>
       </c>
       <c r="W21" t="n">
-        <v>99.34977628350944</v>
+        <v>49.17312159486764</v>
       </c>
       <c r="X21" t="n">
-        <v>99.34977628350944</v>
+        <v>49.17312159486764</v>
       </c>
       <c r="Y21" t="n">
-        <v>99.34977628350944</v>
+        <v>49.17312159486764</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="C22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="D22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="E22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="F22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="G22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="H22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="I22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="J22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="K22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="L22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="M22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="N22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="O22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="P22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="R22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="S22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="T22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="U22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="V22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="W22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="X22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.34977628350944</v>
+        <v>1.986995525670162</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.993229124016807</v>
+        <v>4.544589151986571</v>
       </c>
       <c r="C23" t="n">
-        <v>2.993229124016807</v>
+        <v>4.544589151986571</v>
       </c>
       <c r="D23" t="n">
-        <v>2.993229124016807</v>
+        <v>4.544589151986571</v>
       </c>
       <c r="E23" t="n">
-        <v>2.993229124016807</v>
+        <v>4.544589151986571</v>
       </c>
       <c r="F23" t="n">
-        <v>2.993229124016807</v>
+        <v>4.544589151986571</v>
       </c>
       <c r="G23" t="n">
-        <v>2.993229124016807</v>
+        <v>4.544589151986571</v>
       </c>
       <c r="H23" t="n">
-        <v>2.993229124016807</v>
+        <v>4.544589151986571</v>
       </c>
       <c r="I23" t="n">
         <v>2.993229124016807</v>
@@ -6007,34 +6007,34 @@
         <v>101.664719573601</v>
       </c>
       <c r="P23" t="n">
-        <v>101.664719573601</v>
+        <v>80.13118319281503</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.664719573601</v>
+        <v>42.3378861724008</v>
       </c>
       <c r="R23" t="n">
-        <v>101.664719573601</v>
+        <v>42.3378861724008</v>
       </c>
       <c r="S23" t="n">
-        <v>101.664719573601</v>
+        <v>42.3378861724008</v>
       </c>
       <c r="T23" t="n">
-        <v>101.664719573601</v>
+        <v>42.3378861724008</v>
       </c>
       <c r="U23" t="n">
-        <v>78.57982316484527</v>
+        <v>42.3378861724008</v>
       </c>
       <c r="V23" t="n">
-        <v>78.57982316484527</v>
+        <v>4.544589151986571</v>
       </c>
       <c r="W23" t="n">
-        <v>40.78652614443104</v>
+        <v>4.544589151986571</v>
       </c>
       <c r="X23" t="n">
-        <v>2.993229124016807</v>
+        <v>4.544589151986571</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.993229124016807</v>
+        <v>4.544589151986571</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>36.28156513959766</v>
+        <v>74.07486216001189</v>
       </c>
       <c r="C24" t="n">
-        <v>36.28156513959766</v>
+        <v>74.07486216001189</v>
       </c>
       <c r="D24" t="n">
-        <v>36.28156513959766</v>
+        <v>74.07486216001189</v>
       </c>
       <c r="E24" t="n">
-        <v>2.993229124016807</v>
+        <v>74.07486216001189</v>
       </c>
       <c r="F24" t="n">
-        <v>2.993229124016807</v>
+        <v>40.78652614443104</v>
       </c>
       <c r="G24" t="n">
         <v>2.993229124016807</v>
@@ -6077,10 +6077,10 @@
         <v>40.03443953372479</v>
       </c>
       <c r="M24" t="n">
-        <v>77.07564994343278</v>
+        <v>53.95815941609217</v>
       </c>
       <c r="N24" t="n">
-        <v>114.1168603531408</v>
+        <v>90.99936982580016</v>
       </c>
       <c r="O24" t="n">
         <v>128.0405802355081</v>
@@ -6101,19 +6101,19 @@
         <v>111.8681591804261</v>
       </c>
       <c r="U24" t="n">
-        <v>111.8681591804261</v>
+        <v>74.07486216001189</v>
       </c>
       <c r="V24" t="n">
-        <v>111.8681591804261</v>
+        <v>74.07486216001189</v>
       </c>
       <c r="W24" t="n">
         <v>74.07486216001189</v>
       </c>
       <c r="X24" t="n">
-        <v>36.28156513959766</v>
+        <v>74.07486216001189</v>
       </c>
       <c r="Y24" t="n">
-        <v>36.28156513959766</v>
+        <v>74.07486216001189</v>
       </c>
     </row>
     <row r="25">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26.07812553277253</v>
+        <v>101.664719573601</v>
       </c>
       <c r="C26" t="n">
-        <v>26.07812553277253</v>
+        <v>78.57982316484527</v>
       </c>
       <c r="D26" t="n">
-        <v>26.07812553277253</v>
+        <v>40.78652614443104</v>
       </c>
       <c r="E26" t="n">
-        <v>26.07812553277253</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="F26" t="n">
-        <v>26.07812553277253</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="G26" t="n">
         <v>2.993229124016807</v>
@@ -6259,19 +6259,19 @@
         <v>101.664719573601</v>
       </c>
       <c r="U26" t="n">
-        <v>63.87142255318676</v>
+        <v>101.664719573601</v>
       </c>
       <c r="V26" t="n">
-        <v>26.07812553277253</v>
+        <v>101.664719573601</v>
       </c>
       <c r="W26" t="n">
-        <v>26.07812553277253</v>
+        <v>101.664719573601</v>
       </c>
       <c r="X26" t="n">
-        <v>26.07812553277253</v>
+        <v>101.664719573601</v>
       </c>
       <c r="Y26" t="n">
-        <v>26.07812553277253</v>
+        <v>101.664719573601</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.8681591804261</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="C27" t="n">
-        <v>111.8681591804261</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="D27" t="n">
-        <v>111.8681591804261</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="E27" t="n">
-        <v>111.8681591804261</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="F27" t="n">
-        <v>111.8681591804261</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="G27" t="n">
-        <v>111.8681591804261</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="H27" t="n">
-        <v>78.57982316484527</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="I27" t="n">
-        <v>40.78652614443104</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="J27" t="n">
         <v>2.993229124016807</v>
@@ -6326,31 +6326,31 @@
         <v>149.6614562008403</v>
       </c>
       <c r="Q27" t="n">
-        <v>149.6614562008403</v>
+        <v>111.8681591804261</v>
       </c>
       <c r="R27" t="n">
-        <v>149.6614562008403</v>
+        <v>111.8681591804261</v>
       </c>
       <c r="S27" t="n">
-        <v>149.6614562008403</v>
+        <v>74.07486216001189</v>
       </c>
       <c r="T27" t="n">
-        <v>149.6614562008403</v>
+        <v>74.07486216001189</v>
       </c>
       <c r="U27" t="n">
-        <v>149.6614562008403</v>
+        <v>36.28156513959766</v>
       </c>
       <c r="V27" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="W27" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="X27" t="n">
-        <v>111.8681591804261</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="Y27" t="n">
-        <v>111.8681591804261</v>
+        <v>2.993229124016807</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="C28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="D28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="E28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="F28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="G28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="H28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="I28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="J28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="K28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="L28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="M28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="N28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="O28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="P28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="Q28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="R28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="S28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="T28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="U28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="V28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="W28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="X28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.57982316484527</v>
+        <v>26.07812553277253</v>
       </c>
       <c r="C29" t="n">
-        <v>40.78652614443104</v>
+        <v>26.07812553277253</v>
       </c>
       <c r="D29" t="n">
-        <v>2.993229124016807</v>
+        <v>26.07812553277253</v>
       </c>
       <c r="E29" t="n">
-        <v>2.993229124016807</v>
+        <v>26.07812553277253</v>
       </c>
       <c r="F29" t="n">
-        <v>2.993229124016807</v>
+        <v>26.07812553277253</v>
       </c>
       <c r="G29" t="n">
         <v>2.993229124016807</v>
@@ -6487,28 +6487,28 @@
         <v>101.664719573601</v>
       </c>
       <c r="R29" t="n">
-        <v>101.664719573601</v>
+        <v>63.87142255318676</v>
       </c>
       <c r="S29" t="n">
-        <v>101.664719573601</v>
+        <v>63.87142255318676</v>
       </c>
       <c r="T29" t="n">
-        <v>101.664719573601</v>
+        <v>26.07812553277253</v>
       </c>
       <c r="U29" t="n">
-        <v>101.664719573601</v>
+        <v>26.07812553277253</v>
       </c>
       <c r="V29" t="n">
-        <v>101.664719573601</v>
+        <v>26.07812553277253</v>
       </c>
       <c r="W29" t="n">
-        <v>78.57982316484527</v>
+        <v>26.07812553277253</v>
       </c>
       <c r="X29" t="n">
-        <v>78.57982316484527</v>
+        <v>26.07812553277253</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.57982316484527</v>
+        <v>26.07812553277253</v>
       </c>
     </row>
     <row r="30">
@@ -6551,10 +6551,10 @@
         <v>40.03443953372479</v>
       </c>
       <c r="M30" t="n">
-        <v>53.95815941609217</v>
+        <v>77.07564994343278</v>
       </c>
       <c r="N30" t="n">
-        <v>90.99936982580016</v>
+        <v>114.1168603531408</v>
       </c>
       <c r="O30" t="n">
         <v>128.0405802355081</v>
@@ -6563,28 +6563,28 @@
         <v>149.6614562008403</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.8681591804261</v>
+        <v>149.6614562008403</v>
       </c>
       <c r="R30" t="n">
-        <v>111.8681591804261</v>
+        <v>116.3731201852595</v>
       </c>
       <c r="S30" t="n">
-        <v>111.8681591804261</v>
+        <v>116.3731201852595</v>
       </c>
       <c r="T30" t="n">
-        <v>111.8681591804261</v>
+        <v>116.3731201852595</v>
       </c>
       <c r="U30" t="n">
-        <v>74.07486216001189</v>
+        <v>78.57982316484527</v>
       </c>
       <c r="V30" t="n">
-        <v>36.28156513959766</v>
+        <v>78.57982316484527</v>
       </c>
       <c r="W30" t="n">
-        <v>2.993229124016807</v>
+        <v>78.57982316484527</v>
       </c>
       <c r="X30" t="n">
-        <v>2.993229124016807</v>
+        <v>40.78652614443104</v>
       </c>
       <c r="Y30" t="n">
         <v>2.993229124016807</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="C31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="D31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="E31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="F31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="G31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="H31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="I31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="J31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="K31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="L31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="M31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="N31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="O31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="P31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="Q31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="R31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="S31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="T31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="U31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="V31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="W31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="X31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.6614562008403</v>
+        <v>2.993229124016807</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.87142255318676</v>
+        <v>40.78652614443104</v>
       </c>
       <c r="C32" t="n">
         <v>40.78652614443104</v>
       </c>
       <c r="D32" t="n">
-        <v>2.993229124016807</v>
+        <v>40.78652614443104</v>
       </c>
       <c r="E32" t="n">
-        <v>2.993229124016807</v>
+        <v>40.78652614443104</v>
       </c>
       <c r="F32" t="n">
-        <v>2.993229124016807</v>
+        <v>40.78652614443104</v>
       </c>
       <c r="G32" t="n">
         <v>2.993229124016807</v>
@@ -6724,28 +6724,28 @@
         <v>101.664719573601</v>
       </c>
       <c r="R32" t="n">
-        <v>101.664719573601</v>
+        <v>63.87142255318676</v>
       </c>
       <c r="S32" t="n">
-        <v>101.664719573601</v>
+        <v>63.87142255318676</v>
       </c>
       <c r="T32" t="n">
-        <v>101.664719573601</v>
+        <v>40.78652614443104</v>
       </c>
       <c r="U32" t="n">
-        <v>101.664719573601</v>
+        <v>40.78652614443104</v>
       </c>
       <c r="V32" t="n">
-        <v>101.664719573601</v>
+        <v>40.78652614443104</v>
       </c>
       <c r="W32" t="n">
-        <v>63.87142255318676</v>
+        <v>40.78652614443104</v>
       </c>
       <c r="X32" t="n">
-        <v>63.87142255318676</v>
+        <v>40.78652614443104</v>
       </c>
       <c r="Y32" t="n">
-        <v>63.87142255318676</v>
+        <v>40.78652614443104</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>78.57982316484527</v>
+        <v>36.28156513959766</v>
       </c>
       <c r="C33" t="n">
-        <v>78.57982316484527</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="D33" t="n">
-        <v>78.57982316484527</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="E33" t="n">
-        <v>78.57982316484527</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="F33" t="n">
-        <v>78.57982316484527</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="G33" t="n">
-        <v>40.78652614443104</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="H33" t="n">
-        <v>40.78652614443104</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="I33" t="n">
-        <v>40.78652614443104</v>
+        <v>2.993229124016807</v>
       </c>
       <c r="J33" t="n">
         <v>2.993229124016807</v>
@@ -6785,7 +6785,7 @@
         <v>2.993229124016807</v>
       </c>
       <c r="L33" t="n">
-        <v>40.03443953372479</v>
+        <v>16.91694900638419</v>
       </c>
       <c r="M33" t="n">
         <v>53.95815941609217</v>
@@ -6800,7 +6800,7 @@
         <v>149.6614562008403</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.8681591804261</v>
+        <v>149.6614562008403</v>
       </c>
       <c r="R33" t="n">
         <v>111.8681591804261</v>
@@ -6812,19 +6812,19 @@
         <v>111.8681591804261</v>
       </c>
       <c r="U33" t="n">
-        <v>111.8681591804261</v>
+        <v>74.07486216001189</v>
       </c>
       <c r="V33" t="n">
-        <v>111.8681591804261</v>
+        <v>74.07486216001189</v>
       </c>
       <c r="W33" t="n">
-        <v>78.57982316484527</v>
+        <v>74.07486216001189</v>
       </c>
       <c r="X33" t="n">
-        <v>78.57982316484527</v>
+        <v>36.28156513959766</v>
       </c>
       <c r="Y33" t="n">
-        <v>78.57982316484527</v>
+        <v>36.28156513959766</v>
       </c>
     </row>
     <row r="34">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>52.16365021431054</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="C35" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="D35" t="n">
         <v>1.986995525670159</v>
@@ -6970,19 +6970,19 @@
         <v>75.7542044161748</v>
       </c>
       <c r="U35" t="n">
-        <v>75.7542044161748</v>
+        <v>50.66587707185461</v>
       </c>
       <c r="V35" t="n">
-        <v>75.7542044161748</v>
+        <v>50.66587707185461</v>
       </c>
       <c r="W35" t="n">
-        <v>75.7542044161748</v>
+        <v>50.66587707185461</v>
       </c>
       <c r="X35" t="n">
-        <v>52.16365021431054</v>
+        <v>25.57754972753442</v>
       </c>
       <c r="Y35" t="n">
-        <v>52.16365021431054</v>
+        <v>1.986995525670159</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.986995525670159</v>
+        <v>24.08479425054736</v>
       </c>
       <c r="C36" t="n">
         <v>1.986995525670159</v>
@@ -7043,25 +7043,25 @@
         <v>99.34977628350794</v>
       </c>
       <c r="S36" t="n">
-        <v>77.25197755863073</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="T36" t="n">
-        <v>77.25197755863073</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="U36" t="n">
-        <v>77.25197755863073</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="V36" t="n">
-        <v>77.25197755863073</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="W36" t="n">
-        <v>52.16365021431054</v>
+        <v>74.26144893918774</v>
       </c>
       <c r="X36" t="n">
-        <v>27.07532286999035</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.986995525670159</v>
+        <v>49.17312159486755</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="C37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="D37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="E37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="F37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="G37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="H37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="I37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="J37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="K37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="L37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="M37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="N37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="O37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="P37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="Q37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="R37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="S37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="T37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="U37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="V37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="W37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="X37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.34977628350794</v>
+        <v>1.986995525670159</v>
       </c>
     </row>
     <row r="38">
@@ -7195,25 +7195,25 @@
         <v>75.7542044161748</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.16365021431054</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="R38" t="n">
-        <v>52.16365021431054</v>
+        <v>50.66587707185461</v>
       </c>
       <c r="S38" t="n">
-        <v>52.16365021431054</v>
+        <v>50.66587707185461</v>
       </c>
       <c r="T38" t="n">
-        <v>52.16365021431054</v>
+        <v>50.66587707185461</v>
       </c>
       <c r="U38" t="n">
-        <v>52.16365021431054</v>
+        <v>25.57754972753442</v>
       </c>
       <c r="V38" t="n">
-        <v>27.07532286999035</v>
+        <v>25.57754972753442</v>
       </c>
       <c r="W38" t="n">
-        <v>27.07532286999035</v>
+        <v>25.57754972753442</v>
       </c>
       <c r="X38" t="n">
         <v>1.986995525670159</v>
@@ -7232,13 +7232,13 @@
         <v>27.07532286999035</v>
       </c>
       <c r="C39" t="n">
-        <v>1.986995525670159</v>
+        <v>27.07532286999035</v>
       </c>
       <c r="D39" t="n">
-        <v>1.986995525670159</v>
+        <v>27.07532286999035</v>
       </c>
       <c r="E39" t="n">
-        <v>1.986995525670159</v>
+        <v>27.07532286999035</v>
       </c>
       <c r="F39" t="n">
         <v>1.986995525670159</v>
@@ -7259,13 +7259,13 @@
         <v>1.986995525670159</v>
       </c>
       <c r="L39" t="n">
-        <v>25.5825673930033</v>
+        <v>26.57606515583837</v>
       </c>
       <c r="M39" t="n">
-        <v>50.17163702317151</v>
+        <v>51.16513478600659</v>
       </c>
       <c r="N39" t="n">
-        <v>74.76070665333972</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="O39" t="n">
         <v>99.34977628350794</v>
@@ -7283,10 +7283,10 @@
         <v>99.34977628350794</v>
       </c>
       <c r="T39" t="n">
+        <v>99.34977628350794</v>
+      </c>
+      <c r="U39" t="n">
         <v>74.26144893918774</v>
-      </c>
-      <c r="U39" t="n">
-        <v>52.16365021431054</v>
       </c>
       <c r="V39" t="n">
         <v>52.16365021431054</v>
@@ -7295,7 +7295,7 @@
         <v>52.16365021431054</v>
       </c>
       <c r="X39" t="n">
-        <v>27.07532286999035</v>
+        <v>52.16365021431054</v>
       </c>
       <c r="Y39" t="n">
         <v>27.07532286999035</v>
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25.57754972753442</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="C41" t="n">
-        <v>25.57754972753442</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="D41" t="n">
         <v>1.986995525670159</v>
@@ -7447,16 +7447,16 @@
         <v>75.7542044161748</v>
       </c>
       <c r="V41" t="n">
-        <v>50.66587707185461</v>
+        <v>52.16365021431054</v>
       </c>
       <c r="W41" t="n">
-        <v>25.57754972753442</v>
+        <v>27.07532286999035</v>
       </c>
       <c r="X41" t="n">
-        <v>25.57754972753442</v>
+        <v>27.07532286999035</v>
       </c>
       <c r="Y41" t="n">
-        <v>25.57754972753442</v>
+        <v>1.986995525670159</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>24.08479425054736</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="C42" t="n">
-        <v>24.08479425054736</v>
+        <v>74.26144893918774</v>
       </c>
       <c r="D42" t="n">
-        <v>24.08479425054736</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="E42" t="n">
         <v>24.08479425054736</v>
       </c>
       <c r="F42" t="n">
-        <v>24.08479425054736</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="G42" t="n">
         <v>1.986995525670159</v>
@@ -7496,46 +7496,46 @@
         <v>1.986995525670159</v>
       </c>
       <c r="L42" t="n">
-        <v>3.961691427671092</v>
+        <v>26.57606515583837</v>
       </c>
       <c r="M42" t="n">
-        <v>28.55076105783931</v>
+        <v>51.16513478600659</v>
       </c>
       <c r="N42" t="n">
-        <v>53.13983068800752</v>
+        <v>75.7542044161748</v>
       </c>
       <c r="O42" t="n">
-        <v>77.72890031817573</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="P42" t="n">
         <v>99.34977628350794</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.26144893918774</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="R42" t="n">
-        <v>74.26144893918774</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="S42" t="n">
-        <v>49.17312159486755</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="T42" t="n">
-        <v>49.17312159486755</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="U42" t="n">
-        <v>24.08479425054736</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="V42" t="n">
-        <v>24.08479425054736</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="W42" t="n">
-        <v>24.08479425054736</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="X42" t="n">
-        <v>24.08479425054736</v>
+        <v>99.34977628350794</v>
       </c>
       <c r="Y42" t="n">
-        <v>24.08479425054736</v>
+        <v>99.34977628350794</v>
       </c>
     </row>
     <row r="43">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="C44" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="D44" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="E44" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="F44" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="G44" t="n">
         <v>1.986995525670159</v>
@@ -7666,34 +7666,34 @@
         <v>75.7542044161748</v>
       </c>
       <c r="P44" t="n">
-        <v>75.7542044161748</v>
+        <v>54.22066803538885</v>
       </c>
       <c r="Q44" t="n">
-        <v>75.7542044161748</v>
+        <v>54.22066803538885</v>
       </c>
       <c r="R44" t="n">
-        <v>75.7542044161748</v>
+        <v>29.13234069106866</v>
       </c>
       <c r="S44" t="n">
-        <v>75.7542044161748</v>
+        <v>4.044013346748471</v>
       </c>
       <c r="T44" t="n">
-        <v>75.7542044161748</v>
+        <v>4.044013346748471</v>
       </c>
       <c r="U44" t="n">
-        <v>50.66587707185461</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="V44" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="W44" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="X44" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670159</v>
       </c>
       <c r="Y44" t="n">
-        <v>27.07532286999035</v>
+        <v>1.986995525670159</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>52.16365021431054</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="C45" t="n">
         <v>27.07532286999035</v>
@@ -7712,7 +7712,7 @@
         <v>27.07532286999035</v>
       </c>
       <c r="E45" t="n">
-        <v>1.986995525670159</v>
+        <v>27.07532286999035</v>
       </c>
       <c r="F45" t="n">
         <v>1.986995525670159</v>
@@ -7733,10 +7733,10 @@
         <v>1.986995525670159</v>
       </c>
       <c r="L45" t="n">
-        <v>3.961691427671092</v>
+        <v>26.57606515583837</v>
       </c>
       <c r="M45" t="n">
-        <v>28.55076105783931</v>
+        <v>51.16513478600659</v>
       </c>
       <c r="N45" t="n">
         <v>53.13983068800752</v>
@@ -7754,25 +7754,25 @@
         <v>99.34977628350794</v>
       </c>
       <c r="S45" t="n">
-        <v>99.34977628350794</v>
+        <v>74.26144893918774</v>
       </c>
       <c r="T45" t="n">
-        <v>74.26144893918774</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="U45" t="n">
-        <v>74.26144893918774</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="V45" t="n">
-        <v>52.16365021431054</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="W45" t="n">
-        <v>52.16365021431054</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="X45" t="n">
-        <v>52.16365021431054</v>
+        <v>49.17312159486755</v>
       </c>
       <c r="Y45" t="n">
-        <v>52.16365021431054</v>
+        <v>49.17312159486755</v>
       </c>
     </row>
     <row r="46">
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>71.97849854454964</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7996,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>85.58838417758693</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>83.42355640483248</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>114.085400487321</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>81.18949827734528</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>67.52371566667536</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>67.17903279110968</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>55.89865382137701</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>68.98158147698734</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>16.43335224433224</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>56.54187083839042</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>59.95218091677093</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>66.95599007284454</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>37.82341776112622</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>75.3734759413816</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>66.95599007284454</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>37.82341776112619</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>75.37347594138157</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9099,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>53.93507504251048</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>69.64128415389851</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>66.95599007284454</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>37.82341776112619</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>75.37347594138157</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>62.8844238822243</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>69.64128415389851</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>66.95599007284454</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>75.37347594138157</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>63.0681989803391</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>69.64128415389851</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>66.95599007284454</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>37.82341776112619</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>46.91761274786606</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>69.64128415389851</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>66.95599007284454</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>62.8844238822243</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10050,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>69.64128415389851</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>66.95599007284454</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>75.37347594138157</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>63.0681989803391</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.91761274786606</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>69.64128415389851</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>66.95599007284454</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>37.82341776112619</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.91761274786606</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>69.64128415389851</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>63.0681989803391</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.91761274786606</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>62.8844238822243</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>69.64128415389851</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>66.95599007284454</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>37.82341776112619</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>46.91761274786606</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>62.8844238822243</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>66.95599007284454</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>46.91761274786606</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>69.64128415389851</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>66.95599007284454</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>75.37347594138157</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>63.0681989803391</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>46.91761274786606</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22570,13 +22570,13 @@
         <v>204.0047442482169</v>
       </c>
       <c r="J2" t="n">
-        <v>104.889258789408</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>94.6755543817487</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.97849854454964</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>41.06296488573625</v>
@@ -22588,13 +22588,13 @@
         <v>50.46651067918273</v>
       </c>
       <c r="P2" t="n">
-        <v>85.58838417758693</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.6377068975464</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>177.1709433720083</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S2" t="n">
         <v>205.6441716172273</v>
@@ -22646,10 +22646,10 @@
         <v>120.7755129590769</v>
       </c>
       <c r="I3" t="n">
-        <v>96.24274587248614</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J3" t="n">
-        <v>85.66099395901793</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K3" t="n">
         <v>50.09627633166346</v>
@@ -22673,7 +22673,7 @@
         <v>77.442690741435</v>
       </c>
       <c r="R3" t="n">
-        <v>132.3314102257575</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S3" t="n">
         <v>182.0514410751984</v>
@@ -22728,28 +22728,28 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J4" t="n">
-        <v>111.5952708807813</v>
+        <v>89.79898650365655</v>
       </c>
       <c r="K4" t="n">
-        <v>86.17664930801668</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L4" t="n">
-        <v>73.42283224274789</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>73.3988241034014</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>61.97055239817956</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>82.27212675770768</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>93.88852727320538</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.5056598240275</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R4" t="n">
         <v>184.0703993891455</v>
@@ -22810,7 +22810,7 @@
         <v>97.38162427947184</v>
       </c>
       <c r="K5" t="n">
-        <v>83.42355640483248</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>58.01940008446331</v>
@@ -22828,10 +22828,10 @@
         <v>72.86822951172195</v>
       </c>
       <c r="Q5" t="n">
-        <v>114.085400487321</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>171.6144380180587</v>
+        <v>129.0301979403661</v>
       </c>
       <c r="S5" t="n">
         <v>203.6284692193107</v>
@@ -22883,10 +22883,10 @@
         <v>120.3184202757733</v>
       </c>
       <c r="I6" t="n">
-        <v>94.61323744199868</v>
+        <v>88.05175328971565</v>
       </c>
       <c r="J6" t="n">
-        <v>81.18949827734528</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>42.4537780023314</v>
@@ -22910,7 +22910,7 @@
         <v>71.40126228781628</v>
       </c>
       <c r="R6" t="n">
-        <v>129.3928979528938</v>
+        <v>99.89485591515788</v>
       </c>
       <c r="S6" t="n">
         <v>181.1723368455023</v>
@@ -22965,19 +22965,19 @@
         <v>150.711600368756</v>
       </c>
       <c r="J7" t="n">
-        <v>108.7899981883442</v>
+        <v>86.99371381121945</v>
       </c>
       <c r="K7" t="n">
         <v>81.56672452862283</v>
       </c>
       <c r="L7" t="n">
-        <v>67.52371566667536</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>67.17903279110968</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>55.89865382137701</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>76.66374565676749</v>
@@ -22986,7 +22986,7 @@
         <v>89.08958836357661</v>
       </c>
       <c r="Q7" t="n">
-        <v>130.1831232713674</v>
+        <v>87.84088624258442</v>
       </c>
       <c r="R7" t="n">
         <v>182.2863079995616</v>
@@ -23044,13 +23044,13 @@
         <v>196.2174982714999</v>
       </c>
       <c r="J8" t="n">
-        <v>87.74555168308848</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>68.98158147698734</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>40.1028531396922</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>5.595167593493045</v>
@@ -23059,16 +23059,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>16.43335224433224</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>56.54187083839042</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>164.4826458534311</v>
+        <v>121.8984057757385</v>
       </c>
       <c r="S8" t="n">
         <v>201.0413088276692</v>
@@ -23120,7 +23120,7 @@
         <v>119.7317403736337</v>
       </c>
       <c r="I9" t="n">
-        <v>92.5217582268325</v>
+        <v>85.96027407454947</v>
       </c>
       <c r="J9" t="n">
         <v>75.45031945264532</v>
@@ -23144,10 +23144,10 @@
         <v>3.1870885796273</v>
       </c>
       <c r="Q9" t="n">
-        <v>63.64706979377851</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>125.6213081732896</v>
+        <v>96.12326613555375</v>
       </c>
       <c r="S9" t="n">
         <v>180.0440037912057</v>
@@ -23202,28 +23202,28 @@
         <v>149.1800706541489</v>
       </c>
       <c r="J10" t="n">
-        <v>105.1894218308777</v>
+        <v>83.39313745375298</v>
       </c>
       <c r="K10" t="n">
-        <v>75.64987151995348</v>
+        <v>6.479910928618636</v>
       </c>
       <c r="L10" t="n">
-        <v>59.95218091677093</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>69.46537080709682</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>82.93013512200093</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>125.9186371162145</v>
+        <v>83.57640008743158</v>
       </c>
       <c r="R10" t="n">
         <v>179.9964210683504</v>
@@ -23269,22 +23269,22 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>378.3618055691365</v>
       </c>
       <c r="G11" t="n">
-        <v>394.0767261405531</v>
+        <v>392.5939307295217</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7765828585323</v>
+        <v>332.6140269294093</v>
       </c>
       <c r="I11" t="n">
-        <v>161.9367389944617</v>
+        <v>186.7741830653387</v>
       </c>
       <c r="J11" t="n">
-        <v>66.95599007284454</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>37.82341776112622</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>1.448395856862476</v>
@@ -23302,10 +23302,10 @@
         <v>21.31820101697815</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.3734759413816</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.0960004006322</v>
+        <v>106.5117603229396</v>
       </c>
       <c r="S11" t="n">
         <v>195.4595814361797</v>
@@ -23326,7 +23326,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>358.9309187586043</v>
       </c>
     </row>
     <row r="12">
@@ -23348,22 +23348,22 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>133.9859950490514</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9919010994193</v>
+        <v>126.1150803617908</v>
       </c>
       <c r="H12" t="n">
         <v>118.4659946199538</v>
       </c>
       <c r="I12" t="n">
-        <v>88.00944934109815</v>
+        <v>81.44796518881512</v>
       </c>
       <c r="J12" t="n">
         <v>63.0681989803391</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>11.48159118566198</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>22.08016867698909</v>
       </c>
       <c r="R12" t="n">
-        <v>92.64676288120813</v>
+        <v>63.14872084347223</v>
       </c>
       <c r="S12" t="n">
-        <v>152.7722121877064</v>
+        <v>177.6096562585834</v>
       </c>
       <c r="T12" t="n">
-        <v>201.5417712385425</v>
+        <v>211.937000790509</v>
       </c>
       <c r="U12" t="n">
         <v>237.1785495379934</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>349.2497963069563</v>
       </c>
       <c r="C14" t="n">
-        <v>325.3680533103018</v>
+        <v>326.8508487213332</v>
       </c>
       <c r="D14" t="n">
         <v>337.7721596422273</v>
@@ -23509,7 +23509,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.4313748003987</v>
+        <v>392.5939307295217</v>
       </c>
       <c r="H14" t="n">
         <v>332.6140269294093</v>
@@ -23518,10 +23518,10 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J14" t="n">
-        <v>66.95599007284454</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>37.82341776112619</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1.448395856862476</v>
@@ -23539,10 +23539,10 @@
         <v>21.31820101697809</v>
       </c>
       <c r="Q14" t="n">
-        <v>75.37347594138157</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>124.2585563297552</v>
+        <v>106.5117603229396</v>
       </c>
       <c r="S14" t="n">
         <v>195.4595814361797</v>
@@ -23563,7 +23563,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>358.9309187586043</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -23582,19 +23582,19 @@
         <v>137.2954943389501</v>
       </c>
       <c r="E15" t="n">
-        <v>146.9901277689227</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>133.9859950490514</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>123.1544570285423</v>
+        <v>147.9919010994193</v>
       </c>
       <c r="H15" t="n">
         <v>118.4659946199538</v>
       </c>
       <c r="I15" t="n">
-        <v>88.00944934109813</v>
+        <v>81.44796518881512</v>
       </c>
       <c r="J15" t="n">
         <v>63.0681989803391</v>
@@ -23621,16 +23621,16 @@
         <v>46.91761274786606</v>
       </c>
       <c r="R15" t="n">
-        <v>117.4842069520851</v>
+        <v>87.98616491434922</v>
       </c>
       <c r="S15" t="n">
-        <v>177.6096562585834</v>
+        <v>152.7722121877064</v>
       </c>
       <c r="T15" t="n">
-        <v>211.937000790509</v>
+        <v>187.099556719632</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1785495379934</v>
+        <v>212.3411054671164</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23676,7 +23676,7 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J16" t="n">
-        <v>97.421277364632</v>
+        <v>75.62499298750728</v>
       </c>
       <c r="K16" t="n">
         <v>62.8844238822243</v>
@@ -23691,13 +23691,13 @@
         <v>31.2915202704516</v>
       </c>
       <c r="O16" t="n">
-        <v>53.93507504251048</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>69.64128415389851</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.718125520665</v>
+        <v>74.37588849188199</v>
       </c>
       <c r="R16" t="n">
         <v>175.0560529919647</v>
@@ -23746,19 +23746,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4313748003987</v>
+        <v>394.0767261405531</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7765828585319</v>
+        <v>307.7765828585323</v>
       </c>
       <c r="I17" t="n">
-        <v>186.7741830653387</v>
+        <v>161.9367389944617</v>
       </c>
       <c r="J17" t="n">
-        <v>66.95599007284454</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>37.82341776112619</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1.448395856862476</v>
@@ -23773,13 +23773,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>21.31820101697809</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.53603187050422</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>147.0595527577647</v>
+        <v>106.5117603229396</v>
       </c>
       <c r="S17" t="n">
         <v>195.4595814361797</v>
@@ -23831,7 +23831,7 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I18" t="n">
-        <v>88.00944934109813</v>
+        <v>81.44796518881512</v>
       </c>
       <c r="J18" t="n">
         <v>63.0681989803391</v>
@@ -23855,31 +23855,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.04079201023728</v>
+        <v>22.08016867698908</v>
       </c>
       <c r="R18" t="n">
-        <v>92.64676288120776</v>
+        <v>87.98616491434922</v>
       </c>
       <c r="S18" t="n">
         <v>177.6096562585834</v>
       </c>
       <c r="T18" t="n">
-        <v>211.937000790509</v>
+        <v>187.099556719632</v>
       </c>
       <c r="U18" t="n">
         <v>237.1785495379934</v>
       </c>
       <c r="V18" t="n">
-        <v>215.8114768445249</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>241.8671395061342</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>192.4754703685936</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>201.5074653963972</v>
       </c>
     </row>
     <row r="19">
@@ -23913,10 +23913,10 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J19" t="n">
-        <v>97.421277364632</v>
+        <v>75.62499298750728</v>
       </c>
       <c r="K19" t="n">
-        <v>62.8844238822243</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>43.61680293027459</v>
@@ -23931,10 +23931,10 @@
         <v>53.93507504251048</v>
       </c>
       <c r="P19" t="n">
-        <v>69.64128415389851</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>116.718125520665</v>
+        <v>74.37588849188199</v>
       </c>
       <c r="R19" t="n">
         <v>175.0560529919647</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>349.2497963069559</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
         <v>350.2054973811788</v>
@@ -23980,7 +23980,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>378.3618055691364</v>
       </c>
       <c r="G20" t="n">
         <v>417.4313748003987</v>
@@ -23992,7 +23992,7 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J20" t="n">
-        <v>66.95599007284454</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>37.82341776112619</v>
@@ -24013,19 +24013,19 @@
         <v>21.31820101697809</v>
       </c>
       <c r="Q20" t="n">
-        <v>75.37347594138157</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.0960004006322</v>
+        <v>106.5117603229396</v>
       </c>
       <c r="S20" t="n">
         <v>195.4595814361797</v>
       </c>
       <c r="T20" t="n">
-        <v>191.4701783736932</v>
+        <v>216.3076224445705</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0379976396698</v>
+        <v>225.2005535687927</v>
       </c>
       <c r="V20" t="n">
         <v>297.5251349493064</v>
@@ -24047,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>154.873673660037</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>134.3348710057015</v>
       </c>
       <c r="E21" t="n">
-        <v>146.9901277689223</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>133.985995049051</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9919010994193</v>
+        <v>126.1150803617908</v>
       </c>
       <c r="H21" t="n">
-        <v>93.62855054907649</v>
+        <v>118.4659946199538</v>
       </c>
       <c r="I21" t="n">
-        <v>88.00944934109813</v>
+        <v>81.44796518881512</v>
       </c>
       <c r="J21" t="n">
-        <v>63.0681989803391</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>11.48159118566196</v>
@@ -24095,10 +24095,10 @@
         <v>46.91761274786606</v>
       </c>
       <c r="R21" t="n">
-        <v>117.4842069520851</v>
+        <v>87.98616491434922</v>
       </c>
       <c r="S21" t="n">
-        <v>177.6096562585834</v>
+        <v>152.7722121877064</v>
       </c>
       <c r="T21" t="n">
         <v>211.937000790509</v>
@@ -24110,7 +24110,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>241.8671395061346</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -24150,7 +24150,7 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J22" t="n">
-        <v>97.421277364632</v>
+        <v>75.62499298750728</v>
       </c>
       <c r="K22" t="n">
         <v>62.8844238822243</v>
@@ -24168,10 +24168,10 @@
         <v>53.93507504251048</v>
       </c>
       <c r="P22" t="n">
-        <v>69.64128415389851</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>116.718125520665</v>
+        <v>74.37588849188199</v>
       </c>
       <c r="R22" t="n">
         <v>175.0560529919647</v>
@@ -24226,13 +24226,13 @@
         <v>332.6140269294093</v>
       </c>
       <c r="I23" t="n">
-        <v>186.7741830653387</v>
+        <v>185.2383366376486</v>
       </c>
       <c r="J23" t="n">
-        <v>66.95599007284454</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>37.82341776112619</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1.448395856862476</v>
@@ -24247,13 +24247,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>21.31820101697809</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>75.37347594138157</v>
+        <v>37.95811189117148</v>
       </c>
       <c r="R23" t="n">
-        <v>149.0960004006322</v>
+        <v>106.5117603229396</v>
       </c>
       <c r="S23" t="n">
         <v>195.4595814361797</v>
@@ -24262,16 +24262,16 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U23" t="n">
-        <v>227.1839501950016</v>
+        <v>250.0379976396698</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>283.4644195589419</v>
       </c>
       <c r="W23" t="n">
-        <v>300.4810997755568</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>322.367350244496</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24293,19 +24293,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>138.8721191843746</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>125.8679864645033</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9919010994193</v>
+        <v>110.5765370492092</v>
       </c>
       <c r="H24" t="n">
         <v>118.4659946199538</v>
       </c>
       <c r="I24" t="n">
-        <v>88.00944934109813</v>
+        <v>81.44796518881512</v>
       </c>
       <c r="J24" t="n">
         <v>63.0681989803391</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.91761274786606</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>117.4842069520851</v>
+        <v>87.98616491434922</v>
       </c>
       <c r="S24" t="n">
         <v>177.6096562585834</v>
@@ -24341,16 +24341,16 @@
         <v>174.5216367402989</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1785495379934</v>
+        <v>199.7631854877833</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>229.2892195268015</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>179.8975503892605</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -24387,7 +24387,7 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J25" t="n">
-        <v>97.421277364632</v>
+        <v>75.62499298750728</v>
       </c>
       <c r="K25" t="n">
         <v>62.8844238822243</v>
@@ -24405,10 +24405,10 @@
         <v>53.93507504251048</v>
       </c>
       <c r="P25" t="n">
-        <v>69.64128415389851</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>116.718125520665</v>
+        <v>74.37588849188199</v>
       </c>
       <c r="R25" t="n">
         <v>175.0560529919647</v>
@@ -24445,19 +24445,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>327.3514499365107</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>300.3567955920172</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>334.0635480114261</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>394.5773273557306</v>
+        <v>417.4313748003987</v>
       </c>
       <c r="H26" t="n">
         <v>332.6140269294093</v>
@@ -24466,7 +24466,7 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J26" t="n">
-        <v>66.95599007284454</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>37.82341776112619</v>
@@ -24490,7 +24490,7 @@
         <v>75.37347594138157</v>
       </c>
       <c r="R26" t="n">
-        <v>149.0960004006322</v>
+        <v>106.5117603229396</v>
       </c>
       <c r="S26" t="n">
         <v>195.4595814361797</v>
@@ -24499,10 +24499,10 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U26" t="n">
-        <v>212.6226335894597</v>
+        <v>250.0379976396698</v>
       </c>
       <c r="V26" t="n">
-        <v>283.4644195589419</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
@@ -24539,13 +24539,13 @@
         <v>147.9919010994193</v>
       </c>
       <c r="H27" t="n">
-        <v>85.5105419645288</v>
+        <v>118.4659946199538</v>
       </c>
       <c r="I27" t="n">
-        <v>50.59408529088805</v>
+        <v>81.44796518881512</v>
       </c>
       <c r="J27" t="n">
-        <v>25.65283493012902</v>
+        <v>63.0681989803391</v>
       </c>
       <c r="K27" t="n">
         <v>11.48159118566196</v>
@@ -24566,28 +24566,28 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.91761274786606</v>
+        <v>9.502248697655972</v>
       </c>
       <c r="R27" t="n">
-        <v>117.4842069520851</v>
+        <v>87.98616491434922</v>
       </c>
       <c r="S27" t="n">
-        <v>177.6096562585834</v>
+        <v>140.1942922083733</v>
       </c>
       <c r="T27" t="n">
         <v>211.937000790509</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1785495379934</v>
+        <v>199.7631854877833</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>207.6934682599772</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>179.8975503892605</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -24624,10 +24624,10 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J28" t="n">
-        <v>97.421277364632</v>
+        <v>75.62499298750728</v>
       </c>
       <c r="K28" t="n">
-        <v>62.8844238822243</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>43.61680293027459</v>
@@ -24642,10 +24642,10 @@
         <v>53.93507504251048</v>
       </c>
       <c r="P28" t="n">
-        <v>69.64128415389851</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>116.718125520665</v>
+        <v>74.37588849188199</v>
       </c>
       <c r="R28" t="n">
         <v>175.0560529919647</v>
@@ -24682,10 +24682,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>312.7901333309687</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>300.3567955920172</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
@@ -24694,7 +24694,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.4313748003987</v>
+        <v>394.5773273557306</v>
       </c>
       <c r="H29" t="n">
         <v>332.6140269294093</v>
@@ -24703,7 +24703,7 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J29" t="n">
-        <v>66.95599007284454</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>37.82341776112619</v>
@@ -24724,16 +24724,16 @@
         <v>21.31820101697809</v>
       </c>
       <c r="Q29" t="n">
-        <v>75.37347594138157</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.0960004006322</v>
+        <v>111.6806363504221</v>
       </c>
       <c r="S29" t="n">
         <v>195.4595814361797</v>
       </c>
       <c r="T29" t="n">
-        <v>216.3076224445705</v>
+        <v>178.8922583943605</v>
       </c>
       <c r="U29" t="n">
         <v>250.0379976396698</v>
@@ -24742,7 +24742,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>315.0424163810987</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
@@ -24779,10 +24779,10 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I30" t="n">
-        <v>88.00944934109813</v>
+        <v>81.44796518881512</v>
       </c>
       <c r="J30" t="n">
-        <v>63.0681989803391</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>11.48159118566196</v>
@@ -24803,10 +24803,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.502248697655972</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>117.4842069520851</v>
+        <v>55.03071225892418</v>
       </c>
       <c r="S30" t="n">
         <v>177.6096562585834</v>
@@ -24818,16 +24818,16 @@
         <v>199.7631854877833</v>
       </c>
       <c r="V30" t="n">
-        <v>203.2335568651922</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>233.7491309215866</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>179.8975503892605</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>185.9689220838155</v>
       </c>
     </row>
     <row r="31">
@@ -24861,7 +24861,7 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J31" t="n">
-        <v>97.421277364632</v>
+        <v>75.62499298750728</v>
       </c>
       <c r="K31" t="n">
         <v>62.8844238822243</v>
@@ -24879,10 +24879,10 @@
         <v>53.93507504251048</v>
       </c>
       <c r="P31" t="n">
-        <v>69.64128415389851</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>116.718125520665</v>
+        <v>74.37588849188199</v>
       </c>
       <c r="R31" t="n">
         <v>175.0560529919647</v>
@@ -24919,10 +24919,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>327.3514499365107</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>300.3567955920172</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
@@ -24931,7 +24931,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.4313748003987</v>
+        <v>380.0160107501886</v>
       </c>
       <c r="H32" t="n">
         <v>332.6140269294093</v>
@@ -24940,10 +24940,10 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J32" t="n">
-        <v>66.95599007284454</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>37.82341776112619</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1.448395856862476</v>
@@ -24964,13 +24964,13 @@
         <v>75.37347594138157</v>
       </c>
       <c r="R32" t="n">
-        <v>149.0960004006322</v>
+        <v>69.09639627272952</v>
       </c>
       <c r="S32" t="n">
         <v>195.4595814361797</v>
       </c>
       <c r="T32" t="n">
-        <v>216.3076224445705</v>
+        <v>193.4535749999024</v>
       </c>
       <c r="U32" t="n">
         <v>250.0379976396698</v>
@@ -24979,7 +24979,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>300.4810997755568</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
@@ -24998,7 +24998,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>154.5626988689409</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -25010,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>110.5765370492092</v>
+        <v>147.9919010994193</v>
       </c>
       <c r="H33" t="n">
         <v>118.4659946199538</v>
       </c>
       <c r="I33" t="n">
-        <v>88.00944934109813</v>
+        <v>81.44796518881512</v>
       </c>
       <c r="J33" t="n">
-        <v>25.65283493012902</v>
+        <v>63.0681989803391</v>
       </c>
       <c r="K33" t="n">
         <v>11.48159118566196</v>
@@ -25040,10 +25040,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.502248697655972</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>117.4842069520851</v>
+        <v>50.57080086413913</v>
       </c>
       <c r="S33" t="n">
         <v>177.6096562585834</v>
@@ -25052,16 +25052,16 @@
         <v>211.937000790509</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1785495379934</v>
+        <v>199.7631854877833</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>233.7491309215866</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>179.8975503892605</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -25116,10 +25116,10 @@
         <v>53.93507504251048</v>
       </c>
       <c r="P34" t="n">
-        <v>69.64128415389851</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>116.718125520665</v>
+        <v>74.37588849188199</v>
       </c>
       <c r="R34" t="n">
         <v>175.0560529919647</v>
@@ -25156,10 +25156,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>325.3680533103018</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>312.9347155713503</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
@@ -25210,7 +25210,7 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0379976396698</v>
+        <v>225.2005535687928</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25219,10 +25219,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>336.4280656348605</v>
+        <v>334.9452702238291</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>358.9309187586043</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>151.9130503267887</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>165.6413307867375</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -25253,10 +25253,10 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I36" t="n">
-        <v>88.00944934109813</v>
+        <v>81.44796518881512</v>
       </c>
       <c r="J36" t="n">
-        <v>63.0681989803391</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>11.48159118566196</v>
@@ -25277,13 +25277,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.91761274786606</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>117.4842069520851</v>
+        <v>87.98616491434922</v>
       </c>
       <c r="S36" t="n">
-        <v>155.7328355209549</v>
+        <v>177.6096562585834</v>
       </c>
       <c r="T36" t="n">
         <v>211.937000790509</v>
@@ -25301,7 +25301,7 @@
         <v>192.4754703685936</v>
       </c>
       <c r="Y36" t="n">
-        <v>198.5468420631486</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -25335,10 +25335,10 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J37" t="n">
-        <v>97.421277364632</v>
+        <v>75.62499298750728</v>
       </c>
       <c r="K37" t="n">
-        <v>62.8844238822243</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>43.61680293027459</v>
@@ -25353,7 +25353,7 @@
         <v>53.93507504251048</v>
       </c>
       <c r="P37" t="n">
-        <v>69.64128415389851</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>116.718125520665</v>
@@ -25414,10 +25414,10 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J38" t="n">
-        <v>66.95599007284454</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>37.82341776112619</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1.448395856862476</v>
@@ -25435,10 +25435,10 @@
         <v>21.31820101697809</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.01882728153595</v>
+        <v>75.37347594138157</v>
       </c>
       <c r="R38" t="n">
-        <v>149.0960004006322</v>
+        <v>81.67431625206262</v>
       </c>
       <c r="S38" t="n">
         <v>195.4595814361797</v>
@@ -25447,16 +25447,16 @@
         <v>216.3076224445705</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0379976396698</v>
+        <v>225.2005535687928</v>
       </c>
       <c r="V38" t="n">
-        <v>296.042339538275</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>334.9452702238291</v>
+        <v>336.4280656348605</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -25472,7 +25472,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>162.6807074534889</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -25481,7 +25481,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>133.9859950490514</v>
       </c>
       <c r="G39" t="n">
         <v>147.9919010994193</v>
@@ -25490,7 +25490,7 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I39" t="n">
-        <v>88.00944934109813</v>
+        <v>81.44796518881512</v>
       </c>
       <c r="J39" t="n">
         <v>63.0681989803391</v>
@@ -25514,31 +25514,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.91761274786606</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>117.4842069520851</v>
+        <v>87.98616491434922</v>
       </c>
       <c r="S39" t="n">
         <v>177.6096562585834</v>
       </c>
       <c r="T39" t="n">
-        <v>187.099556719632</v>
+        <v>211.937000790509</v>
       </c>
       <c r="U39" t="n">
-        <v>215.3017288003649</v>
+        <v>212.3411054671164</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>218.7721001777738</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>192.4754703685936</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>198.5468420631486</v>
       </c>
     </row>
     <row r="40">
@@ -25575,7 +25575,7 @@
         <v>97.421277364632</v>
       </c>
       <c r="K40" t="n">
-        <v>62.8844238822243</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>43.61680293027459</v>
@@ -25633,7 +25633,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>314.4175109823817</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -25651,7 +25651,7 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J41" t="n">
-        <v>66.95599007284454</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>37.82341776112619</v>
@@ -25675,7 +25675,7 @@
         <v>75.37347594138157</v>
       </c>
       <c r="R41" t="n">
-        <v>149.0960004006322</v>
+        <v>106.5117603229396</v>
       </c>
       <c r="S41" t="n">
         <v>195.4595814361797</v>
@@ -25687,7 +25687,7 @@
         <v>250.0379976396698</v>
       </c>
       <c r="V41" t="n">
-        <v>296.042339538275</v>
+        <v>297.5251349493064</v>
       </c>
       <c r="W41" t="n">
         <v>313.0590197548899</v>
@@ -25696,7 +25696,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>357.4481233475729</v>
       </c>
     </row>
     <row r="42">
@@ -25709,25 +25709,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>162.6807074534889</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>134.3348710057016</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>146.9901277689227</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>136.9466183822999</v>
       </c>
       <c r="G42" t="n">
-        <v>126.1150803617908</v>
+        <v>147.9919010994193</v>
       </c>
       <c r="H42" t="n">
         <v>118.4659946199538</v>
       </c>
       <c r="I42" t="n">
-        <v>88.00944934109813</v>
+        <v>81.44796518881512</v>
       </c>
       <c r="J42" t="n">
         <v>63.0681989803391</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.08016867698908</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>117.4842069520851</v>
+        <v>87.98616491434922</v>
       </c>
       <c r="S42" t="n">
-        <v>152.7722121877064</v>
+        <v>177.6096562585834</v>
       </c>
       <c r="T42" t="n">
         <v>211.937000790509</v>
       </c>
       <c r="U42" t="n">
-        <v>212.3411054671164</v>
+        <v>237.1785495379934</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25827,10 +25827,10 @@
         <v>53.93507504251048</v>
       </c>
       <c r="P43" t="n">
-        <v>69.64128415389851</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>116.718125520665</v>
+        <v>74.37588849188199</v>
       </c>
       <c r="R43" t="n">
         <v>175.0560529919647</v>
@@ -25879,7 +25879,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>392.5939307295217</v>
+        <v>417.4313748003987</v>
       </c>
       <c r="H44" t="n">
         <v>332.6140269294093</v>
@@ -25888,10 +25888,10 @@
         <v>186.7741830653387</v>
       </c>
       <c r="J44" t="n">
-        <v>66.95599007284454</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>37.82341776112622</v>
+        <v>37.82341776112619</v>
       </c>
       <c r="L44" t="n">
         <v>1.448395856862476</v>
@@ -25906,25 +25906,25 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>21.31820101697815</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>75.3734759413816</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.0960004006322</v>
+        <v>81.67431625206262</v>
       </c>
       <c r="S44" t="n">
-        <v>195.4595814361797</v>
+        <v>170.6221373653027</v>
       </c>
       <c r="T44" t="n">
         <v>216.3076224445705</v>
       </c>
       <c r="U44" t="n">
-        <v>225.2005535687928</v>
+        <v>248.0015499968022</v>
       </c>
       <c r="V44" t="n">
-        <v>297.5251349493064</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
@@ -25946,16 +25946,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>162.6807074534889</v>
+        <v>165.6413307867375</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>146.9901277689227</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>133.9859950490514</v>
       </c>
       <c r="G45" t="n">
         <v>147.9919010994193</v>
@@ -25964,13 +25964,13 @@
         <v>118.4659946199538</v>
       </c>
       <c r="I45" t="n">
-        <v>88.00944934109815</v>
+        <v>81.44796518881512</v>
       </c>
       <c r="J45" t="n">
-        <v>63.0681989803391</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>11.48159118566198</v>
+        <v>11.48159118566196</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,13 +25988,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.91761274786607</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>117.4842069520851</v>
+        <v>87.98616491434922</v>
       </c>
       <c r="S45" t="n">
-        <v>177.6096562585834</v>
+        <v>152.7722121877064</v>
       </c>
       <c r="T45" t="n">
         <v>187.099556719632</v>
@@ -26003,7 +26003,7 @@
         <v>237.1785495379934</v>
       </c>
       <c r="V45" t="n">
-        <v>218.7721001777738</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
@@ -26046,25 +26046,25 @@
         <v>145.8758374158384</v>
       </c>
       <c r="J46" t="n">
-        <v>97.42127736463202</v>
+        <v>97.421277364632</v>
       </c>
       <c r="K46" t="n">
-        <v>62.88442388222431</v>
+        <v>62.8844238822243</v>
       </c>
       <c r="L46" t="n">
-        <v>43.6168029302746</v>
+        <v>43.61680293027459</v>
       </c>
       <c r="M46" t="n">
-        <v>41.97254530708388</v>
+        <v>41.97254530708386</v>
       </c>
       <c r="N46" t="n">
-        <v>31.29152027045161</v>
+        <v>31.2915202704516</v>
       </c>
       <c r="O46" t="n">
-        <v>53.93507504251049</v>
+        <v>53.93507504251048</v>
       </c>
       <c r="P46" t="n">
-        <v>69.64128415389852</v>
+        <v>69.64128415389851</v>
       </c>
       <c r="Q46" t="n">
         <v>116.718125520665</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>257405.6109379561</v>
+        <v>362018.4664195307</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>272325.6584578713</v>
+        <v>325924.5085881389</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>290776.5356041151</v>
+        <v>376100.7981020139</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331258.4285150346</v>
+        <v>365442.7966852921</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>331258.4285150346</v>
+        <v>373439.4505989508</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>331258.4285150348</v>
+        <v>373820.6928595227</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>331258.4285150347</v>
+        <v>370544.2583619306</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>336298.6815383689</v>
+        <v>369063.5705451207</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>336298.6815383689</v>
+        <v>362867.3567716295</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>336298.6815383689</v>
+        <v>373098.8036400921</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>336298.6815383688</v>
+        <v>368135.0488306553</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>331258.4285150344</v>
+        <v>348823.9175235644</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>331258.4285150346</v>
+        <v>361003.1742623215</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>331258.4285150346</v>
+        <v>357750.7251118514</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>331258.4285150346</v>
+        <v>368376.2581804873</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102962.2443751825</v>
+        <v>132430.6543699922</v>
       </c>
       <c r="C2" t="n">
-        <v>108930.2633831487</v>
+        <v>124028.5310254775</v>
       </c>
       <c r="D2" t="n">
-        <v>116310.614241646</v>
+        <v>140345.6177621809</v>
       </c>
       <c r="E2" t="n">
-        <v>132503.3714060138</v>
+        <v>142132.7708905934</v>
       </c>
       <c r="F2" t="n">
-        <v>132503.3714060138</v>
+        <v>144385.3494578213</v>
       </c>
       <c r="G2" t="n">
-        <v>132503.3714060138</v>
+        <v>144492.7416438978</v>
       </c>
       <c r="H2" t="n">
-        <v>132503.3714060139</v>
+        <v>143569.8023488015</v>
       </c>
       <c r="I2" t="n">
-        <v>134519.4726153476</v>
+        <v>143749.0188144326</v>
       </c>
       <c r="J2" t="n">
-        <v>134519.4726153476</v>
+        <v>142003.6064838716</v>
       </c>
       <c r="K2" t="n">
-        <v>134519.4726153475</v>
+        <v>144885.7041932977</v>
       </c>
       <c r="L2" t="n">
-        <v>134519.4726153475</v>
+        <v>143487.4634019071</v>
       </c>
       <c r="M2" t="n">
-        <v>132503.3714060138</v>
+        <v>137451.3964788392</v>
       </c>
       <c r="N2" t="n">
-        <v>132503.3714060138</v>
+        <v>140882.1730249679</v>
       </c>
       <c r="O2" t="n">
-        <v>132503.3714060138</v>
+        <v>139965.9901656806</v>
       </c>
       <c r="P2" t="n">
-        <v>132503.3714060138</v>
+        <v>142959.0980723386</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3344.733058824138</v>
+        <v>3344.733058824228</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3055.122441709116</v>
+        <v>3055.122441709117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>30941.8304945502</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>15853.18102444527</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25236.75369656166</v>
       </c>
       <c r="E4" t="n">
-        <v>15.15159353305529</v>
+        <v>10126.02105234163</v>
       </c>
       <c r="F4" t="n">
-        <v>15.15159353305529</v>
+        <v>12491.22854793081</v>
       </c>
       <c r="G4" t="n">
-        <v>15.15159353305548</v>
+        <v>12603.99034331121</v>
       </c>
       <c r="H4" t="n">
-        <v>15.15159353305548</v>
+        <v>11634.90408346007</v>
       </c>
       <c r="I4" t="n">
-        <v>21.32270222400639</v>
+        <v>9712.346211263295</v>
       </c>
       <c r="J4" t="n">
-        <v>21.32270222400639</v>
+        <v>7879.663264174359</v>
       </c>
       <c r="K4" t="n">
-        <v>21.32270222400639</v>
+        <v>10905.86585907174</v>
       </c>
       <c r="L4" t="n">
-        <v>21.32270222400639</v>
+        <v>9437.713028111524</v>
       </c>
       <c r="M4" t="n">
-        <v>15.15159353305529</v>
+        <v>5210.577919999641</v>
       </c>
       <c r="N4" t="n">
-        <v>15.15159353305529</v>
+        <v>8812.893293434812</v>
       </c>
       <c r="O4" t="n">
-        <v>15.15159353305529</v>
+        <v>7850.901291183109</v>
       </c>
       <c r="P4" t="n">
-        <v>15.15159353305529</v>
+        <v>10993.66459317401</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>11344.367506703</v>
       </c>
       <c r="G5" t="n">
-        <v>11344.36750670303</v>
+        <v>11344.367506703</v>
       </c>
       <c r="H5" t="n">
-        <v>11344.36750670303</v>
+        <v>11344.36750670301</v>
       </c>
       <c r="I5" t="n">
         <v>12109.10504144646</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-265643.4020092656</v>
+        <v>-282588.2535119699</v>
       </c>
       <c r="C6" t="n">
-        <v>47375.88612522564</v>
+        <v>30729.43557291971</v>
       </c>
       <c r="D6" t="n">
-        <v>49990.52165699474</v>
+        <v>33713.08864761361</v>
       </c>
       <c r="E6" t="n">
-        <v>64776.15900680926</v>
+        <v>49308.36385564659</v>
       </c>
       <c r="F6" t="n">
-        <v>121143.8523057778</v>
+        <v>105676.0571546151</v>
       </c>
       <c r="G6" t="n">
-        <v>121143.8523057777</v>
+        <v>105676.0571546151</v>
       </c>
       <c r="H6" t="n">
-        <v>121143.8523057778</v>
+        <v>105676.0571546151</v>
       </c>
       <c r="I6" t="n">
-        <v>119044.311812853</v>
+        <v>103677.3217221568</v>
       </c>
       <c r="J6" t="n">
-        <v>122389.0448716771</v>
+        <v>107022.054780981</v>
       </c>
       <c r="K6" t="n">
-        <v>122389.0448716771</v>
+        <v>107022.054780981</v>
       </c>
       <c r="L6" t="n">
-        <v>122389.0448716771</v>
+        <v>107022.054780981</v>
       </c>
       <c r="M6" t="n">
-        <v>118088.7298640687</v>
+        <v>102620.934712906</v>
       </c>
       <c r="N6" t="n">
-        <v>121143.8523057778</v>
+        <v>105676.0571546151</v>
       </c>
       <c r="O6" t="n">
-        <v>121143.8523057777</v>
+        <v>105676.0571546151</v>
       </c>
       <c r="P6" t="n">
-        <v>121143.8523057777</v>
+        <v>105676.0571546151</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>451.11242693549</v>
       </c>
       <c r="P3" t="n">
-        <v>451.1124269354899</v>
+        <v>451.11242693549</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>24.83744407087698</v>
       </c>
       <c r="G4" t="n">
-        <v>24.83744407087736</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="H4" t="n">
-        <v>24.83744407087736</v>
+        <v>24.83744407087702</v>
       </c>
       <c r="I4" t="n">
         <v>37.41536405021009</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.57791997933272</v>
+        <v>12.57791997933307</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31846,10 +31846,10 @@
         <v>156.684964363056</v>
       </c>
       <c r="L12" t="n">
-        <v>193.8737874023235</v>
+        <v>192.8702543085507</v>
       </c>
       <c r="M12" t="n">
-        <v>175.3981637101158</v>
+        <v>198.2409654557393</v>
       </c>
       <c r="N12" t="n">
         <v>185.0743328125436</v>
@@ -31858,7 +31858,7 @@
         <v>198.8048622930992</v>
       </c>
       <c r="P12" t="n">
-        <v>185.2880456973336</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
         <v>123.8601516370802</v>
@@ -32086,16 +32086,16 @@
         <v>193.8737874023235</v>
       </c>
       <c r="M15" t="n">
-        <v>175.3981637101158</v>
+        <v>198.2409654557393</v>
       </c>
       <c r="N15" t="n">
         <v>185.0743328125436</v>
       </c>
       <c r="O15" t="n">
-        <v>198.8048622930992</v>
+        <v>197.8013291993264</v>
       </c>
       <c r="P15" t="n">
-        <v>185.2880456973336</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q15" t="n">
         <v>123.8601516370802</v>
@@ -32244,10 +32244,10 @@
         <v>286.1866304065219</v>
       </c>
       <c r="M17" t="n">
-        <v>305.8598486081501</v>
+        <v>305.8598486081497</v>
       </c>
       <c r="N17" t="n">
-        <v>304.7213816587183</v>
+        <v>304.7213816587179</v>
       </c>
       <c r="O17" t="n">
         <v>305.5572620053348</v>
@@ -32320,19 +32320,19 @@
         <v>156.684964363056</v>
       </c>
       <c r="L18" t="n">
-        <v>193.8737874023239</v>
+        <v>192.8702543085507</v>
       </c>
       <c r="M18" t="n">
-        <v>175.3981637101162</v>
+        <v>198.2409654557393</v>
       </c>
       <c r="N18" t="n">
-        <v>185.074332812544</v>
+        <v>185.0743328125436</v>
       </c>
       <c r="O18" t="n">
-        <v>198.8048622930995</v>
+        <v>198.8048622930992</v>
       </c>
       <c r="P18" t="n">
-        <v>185.2880456973336</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
         <v>123.8601516370802</v>
@@ -32481,10 +32481,10 @@
         <v>286.1866304065219</v>
       </c>
       <c r="M20" t="n">
-        <v>305.8598486081501</v>
+        <v>305.8598486081498</v>
       </c>
       <c r="N20" t="n">
-        <v>304.7213816587183</v>
+        <v>304.721381658718</v>
       </c>
       <c r="O20" t="n">
         <v>305.5572620053348</v>
@@ -32557,19 +32557,19 @@
         <v>156.684964363056</v>
       </c>
       <c r="L21" t="n">
-        <v>193.8737874023239</v>
+        <v>193.8737874023235</v>
       </c>
       <c r="M21" t="n">
-        <v>175.3981637101162</v>
+        <v>198.2409654557394</v>
       </c>
       <c r="N21" t="n">
-        <v>185.074332812544</v>
+        <v>185.0743328125437</v>
       </c>
       <c r="O21" t="n">
-        <v>198.8048622930995</v>
+        <v>197.8013291993264</v>
       </c>
       <c r="P21" t="n">
-        <v>185.2880456973336</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
         <v>123.8601516370802</v>
@@ -32797,13 +32797,13 @@
         <v>206.4517073816566</v>
       </c>
       <c r="M24" t="n">
-        <v>210.8188854350724</v>
+        <v>187.4678849024052</v>
       </c>
       <c r="N24" t="n">
         <v>197.6522527918767</v>
       </c>
       <c r="O24" t="n">
-        <v>188.031781739765</v>
+        <v>211.3827822724323</v>
       </c>
       <c r="P24" t="n">
         <v>185.2880456973336</v>
@@ -33271,13 +33271,13 @@
         <v>206.4517073816566</v>
       </c>
       <c r="M30" t="n">
-        <v>187.4678849024052</v>
+        <v>210.8188854350724</v>
       </c>
       <c r="N30" t="n">
         <v>197.6522527918767</v>
       </c>
       <c r="O30" t="n">
-        <v>211.3827822724323</v>
+        <v>188.031781739765</v>
       </c>
       <c r="P30" t="n">
         <v>185.2880456973336</v>
@@ -33505,10 +33505,10 @@
         <v>156.684964363056</v>
       </c>
       <c r="L33" t="n">
-        <v>206.4517073816566</v>
+        <v>183.1007068489893</v>
       </c>
       <c r="M33" t="n">
-        <v>187.4678849024052</v>
+        <v>210.8188854350724</v>
       </c>
       <c r="N33" t="n">
         <v>197.6522527918767</v>
@@ -33979,7 +33979,7 @@
         <v>156.684964363056</v>
       </c>
       <c r="L39" t="n">
-        <v>192.8702543085507</v>
+        <v>193.8737874023235</v>
       </c>
       <c r="M39" t="n">
         <v>198.2409654557393</v>
@@ -33988,7 +33988,7 @@
         <v>185.0743328125436</v>
       </c>
       <c r="O39" t="n">
-        <v>198.8048622930992</v>
+        <v>197.8013291993264</v>
       </c>
       <c r="P39" t="n">
         <v>163.4487770454829</v>
@@ -34216,7 +34216,7 @@
         <v>156.684964363056</v>
       </c>
       <c r="L42" t="n">
-        <v>171.0309856567</v>
+        <v>193.8737874023235</v>
       </c>
       <c r="M42" t="n">
         <v>198.2409654557393</v>
@@ -34225,10 +34225,10 @@
         <v>185.0743328125436</v>
       </c>
       <c r="O42" t="n">
-        <v>198.8048622930992</v>
+        <v>197.8013291993264</v>
       </c>
       <c r="P42" t="n">
-        <v>185.2880456973336</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
         <v>123.8601516370802</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.813517294213023</v>
+        <v>1.813517294213024</v>
       </c>
       <c r="H44" t="n">
         <v>18.57268398935913</v>
@@ -34386,7 +34386,7 @@
         <v>305.5572620053348</v>
       </c>
       <c r="P44" t="n">
-        <v>260.7860538044507</v>
+        <v>260.7860538044508</v>
       </c>
       <c r="Q44" t="n">
         <v>195.8394657054468</v>
@@ -34395,13 +34395,13 @@
         <v>113.9183557326089</v>
       </c>
       <c r="S44" t="n">
-        <v>41.32552534187931</v>
+        <v>41.32552534187932</v>
       </c>
       <c r="T44" t="n">
-        <v>7.938671955417514</v>
+        <v>7.938671955417515</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1450813835370418</v>
+        <v>0.1450813835370419</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9703172956725632</v>
+        <v>0.9703172956725633</v>
       </c>
       <c r="H45" t="n">
-        <v>9.371222302942915</v>
+        <v>9.371222302942916</v>
       </c>
       <c r="I45" t="n">
-        <v>33.40785425890185</v>
+        <v>33.40785425890186</v>
       </c>
       <c r="J45" t="n">
         <v>91.67370555299425</v>
@@ -34453,13 +34453,13 @@
         <v>156.684964363056</v>
       </c>
       <c r="L45" t="n">
-        <v>171.0309856567</v>
+        <v>193.8737874023235</v>
       </c>
       <c r="M45" t="n">
         <v>198.2409654557393</v>
       </c>
       <c r="N45" t="n">
-        <v>185.0743328125436</v>
+        <v>162.2315310669201</v>
       </c>
       <c r="O45" t="n">
         <v>198.8048622930992</v>
@@ -34471,7 +34471,7 @@
         <v>123.8601516370802</v>
       </c>
       <c r="R45" t="n">
-        <v>60.24478788395092</v>
+        <v>60.24478788395093</v>
       </c>
       <c r="S45" t="n">
         <v>18.02321818935659</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8134814256213752</v>
+        <v>0.8134814256213753</v>
       </c>
       <c r="H46" t="n">
-        <v>7.232589402342777</v>
+        <v>7.232589402342778</v>
       </c>
       <c r="I46" t="n">
         <v>24.463605054141</v>
       </c>
       <c r="J46" t="n">
-        <v>57.51313679143122</v>
+        <v>57.51313679143123</v>
       </c>
       <c r="K46" t="n">
-        <v>94.51175108582883</v>
+        <v>94.51175108582885</v>
       </c>
       <c r="L46" t="n">
         <v>120.9425021328361</v>
@@ -34544,16 +34544,16 @@
         <v>114.9819018687377</v>
       </c>
       <c r="P46" t="n">
-        <v>98.38688078606155</v>
+        <v>98.38688078606157</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.11797646725897</v>
+        <v>68.11797646725898</v>
       </c>
       <c r="R46" t="n">
         <v>36.57708301021201</v>
       </c>
       <c r="S46" t="n">
-        <v>14.17676266287432</v>
+        <v>14.17676266287433</v>
       </c>
       <c r="T46" t="n">
         <v>3.475784273109511</v>
@@ -35494,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>23.83391097710418</v>
+      </c>
+      <c r="M12" t="n">
         <v>24.83744407087698</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.994642325253466</v>
       </c>
       <c r="N12" t="n">
         <v>24.83744407087698</v>
@@ -35506,7 +35506,7 @@
         <v>24.83744407087698</v>
       </c>
       <c r="P12" t="n">
-        <v>21.83926865185072</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>24.83744407087698</v>
       </c>
       <c r="M15" t="n">
-        <v>1.994642325253466</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="N15" t="n">
         <v>24.83744407087698</v>
       </c>
       <c r="O15" t="n">
-        <v>24.83744407087698</v>
+        <v>23.83391097710418</v>
       </c>
       <c r="P15" t="n">
-        <v>21.83926865185072</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>24.83744407087736</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="N17" t="n">
-        <v>24.83744407087736</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="O17" t="n">
         <v>24.83744407087698</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>24.83744407087736</v>
+        <v>23.83391097710418</v>
       </c>
       <c r="M18" t="n">
-        <v>1.994642325253825</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="N18" t="n">
-        <v>24.83744407087736</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="O18" t="n">
-        <v>24.83744407087736</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="P18" t="n">
-        <v>21.83926865185072</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>24.83744407087736</v>
+        <v>24.83744407087702</v>
       </c>
       <c r="N20" t="n">
-        <v>24.83744407087736</v>
+        <v>24.83744407087702</v>
       </c>
       <c r="O20" t="n">
         <v>24.83744407087698</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>24.83744407087736</v>
+        <v>24.83744407087702</v>
       </c>
       <c r="M21" t="n">
-        <v>1.994642325253825</v>
+        <v>24.83744407087702</v>
       </c>
       <c r="N21" t="n">
-        <v>24.83744407087736</v>
+        <v>24.83744407087702</v>
       </c>
       <c r="O21" t="n">
-        <v>24.83744407087736</v>
+        <v>23.83391097710421</v>
       </c>
       <c r="P21" t="n">
-        <v>21.83926865185072</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>37.41536405021009</v>
       </c>
       <c r="M24" t="n">
-        <v>37.41536405021009</v>
+        <v>14.06436351754281</v>
       </c>
       <c r="N24" t="n">
         <v>37.41536405021009</v>
       </c>
       <c r="O24" t="n">
-        <v>14.06436351754281</v>
+        <v>37.41536405021009</v>
       </c>
       <c r="P24" t="n">
         <v>21.83926865185072</v>
@@ -36919,13 +36919,13 @@
         <v>37.41536405021009</v>
       </c>
       <c r="M30" t="n">
-        <v>14.06436351754281</v>
+        <v>37.41536405021009</v>
       </c>
       <c r="N30" t="n">
         <v>37.41536405021009</v>
       </c>
       <c r="O30" t="n">
-        <v>37.41536405021009</v>
+        <v>14.06436351754281</v>
       </c>
       <c r="P30" t="n">
         <v>21.83926865185072</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>14.06436351754281</v>
+      </c>
+      <c r="M33" t="n">
         <v>37.41536405021009</v>
-      </c>
-      <c r="M33" t="n">
-        <v>14.06436351754281</v>
       </c>
       <c r="N33" t="n">
         <v>37.41536405021009</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>23.83391097710418</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="M39" t="n">
         <v>24.83744407087698</v>
@@ -37636,7 +37636,7 @@
         <v>24.83744407087698</v>
       </c>
       <c r="O39" t="n">
-        <v>24.83744407087698</v>
+        <v>23.83391097710418</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1.994642325253467</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="M42" t="n">
         <v>24.83744407087698</v>
@@ -37873,10 +37873,10 @@
         <v>24.83744407087698</v>
       </c>
       <c r="O42" t="n">
-        <v>24.83744407087698</v>
+        <v>23.83391097710418</v>
       </c>
       <c r="P42" t="n">
-        <v>21.83926865185072</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1.994642325253467</v>
+        <v>24.83744407087698</v>
       </c>
       <c r="M45" t="n">
         <v>24.83744407087698</v>
       </c>
       <c r="N45" t="n">
-        <v>24.83744407087698</v>
+        <v>1.994642325253466</v>
       </c>
       <c r="O45" t="n">
         <v>24.83744407087698</v>
